--- a/doc/存档/存档功能-成就系统/成就列表.xlsx
+++ b/doc/存档/存档功能-成就系统/成就列表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="成就" sheetId="1" r:id="rId1"/>
+    <sheet name="成就星级奖励" sheetId="3" r:id="rId2"/>
+    <sheet name="里程碑" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,12 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
   <si>
     <t>成就id</t>
   </si>
   <si>
-    <t>成就类型1:普通 (普通可显示达成内容 ) 2:彩蛋 (不显示达成内容)</t>
+    <t xml:space="preserve">成就类型1:普通 (普通可显示达成内容 ) 2:彩蛋 (不显示达成内容)
+3:通关成就
+4:英雄成长
+5:玩家成长
+</t>
   </si>
   <si>
     <t>标题</t>
@@ -42,6 +47,9 @@
     <t>内容</t>
   </si>
   <si>
+    <t>归属里程</t>
+  </si>
+  <si>
     <t>成就品质</t>
   </si>
   <si>
@@ -51,13 +59,19 @@
     <t>完成数量</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>前置</t>
+  </si>
+  <si>
     <t>排序</t>
   </si>
   <si>
     <t>奖励属性 (见 属性表.xlsx)</t>
   </si>
   <si>
-    <t xml:space="preserve">奖励称号(见 存档功能-物品 物品表.xls) </t>
+    <t xml:space="preserve">奖励道具(见 存档功能-物品 物品表.xls) </t>
   </si>
   <si>
     <t>id</t>
@@ -81,43 +95,301 @@
     <t>小怪猎手</t>
   </si>
   <si>
-    <t>击杀普通小怪1000只</t>
-  </si>
-  <si>
-    <t>攻击力 1</t>
+    <t>击杀普通小怪10000只</t>
+  </si>
+  <si>
+    <t>攻击力 +1</t>
+  </si>
+  <si>
+    <t>【怪物卡片箱】*3</t>
+  </si>
+  <si>
+    <t>小怪杀手</t>
+  </si>
+  <si>
+    <t>击杀普通小怪50000只</t>
+  </si>
+  <si>
+    <t>攻击力 +2</t>
+  </si>
+  <si>
+    <t>【怪物卡片箱】*5</t>
+  </si>
+  <si>
+    <t>小怪残杀者</t>
+  </si>
+  <si>
+    <t>击杀普通小怪100000只</t>
+  </si>
+  <si>
+    <t>攻击力 +3</t>
+  </si>
+  <si>
+    <t>【精致的怪物卡片箱】*5</t>
+  </si>
+  <si>
+    <t>小怪终结者</t>
+  </si>
+  <si>
+    <t>击杀普通小怪200000只</t>
+  </si>
+  <si>
+    <t>攻击力+5</t>
+  </si>
+  <si>
+    <t>【精致的怪物卡片箱】*5、称号【终结者】</t>
+  </si>
+  <si>
+    <t>不死战神I</t>
+  </si>
+  <si>
+    <t>单人通关任意难度自身没有阵亡</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>小怪杀手</t>
-  </si>
-  <si>
-    <t>击杀普通小怪10000只</t>
-  </si>
-  <si>
-    <t>攻击力 2</t>
-  </si>
-  <si>
-    <t>小怪残杀者</t>
-  </si>
-  <si>
-    <t>击杀普通小怪100000只</t>
-  </si>
-  <si>
-    <t>攻击力 3</t>
-  </si>
-  <si>
-    <t>怪物猎人</t>
-  </si>
-  <si>
-    <t>灵魂收割者</t>
-  </si>
-  <si>
-    <t>当局获得1000000灵魂</t>
-  </si>
-  <si>
-    <t>惊夺者</t>
+    <t>不死战神II</t>
+  </si>
+  <si>
+    <t>多人通关任意难度没有任何玩家阵亡</t>
+  </si>
+  <si>
+    <t>首通奖励</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-1</t>
+  </si>
+  <si>
+    <t>金币100</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-2</t>
+  </si>
+  <si>
+    <t>金币200</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-3</t>
+  </si>
+  <si>
+    <t>金币300</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-4</t>
+  </si>
+  <si>
+    <t>金币400</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-5</t>
+  </si>
+  <si>
+    <t>金币500</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-6</t>
+  </si>
+  <si>
+    <t>金币600</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-7</t>
+  </si>
+  <si>
+    <t>金币700</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】1-8</t>
+  </si>
+  <si>
+    <t>金币800</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-1</t>
+  </si>
+  <si>
+    <t>金币900</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-2</t>
+  </si>
+  <si>
+    <t>金币1000</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-3</t>
+  </si>
+  <si>
+    <t>金币1100</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-4</t>
+  </si>
+  <si>
+    <t>金币1200</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-5</t>
+  </si>
+  <si>
+    <t>金币1300</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-6</t>
+  </si>
+  <si>
+    <t>金币1400</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-7</t>
+  </si>
+  <si>
+    <t>金币1500</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】2-8</t>
+  </si>
+  <si>
+    <t>金币1600</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-1</t>
+  </si>
+  <si>
+    <t>金币1700</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-2</t>
+  </si>
+  <si>
+    <t>金币1800</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-3</t>
+  </si>
+  <si>
+    <t>金币1900</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-4</t>
+  </si>
+  <si>
+    <t>金币2000</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-5</t>
+  </si>
+  <si>
+    <t>金币2100</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-6</t>
+  </si>
+  <si>
+    <t>金币2200</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-7</t>
+  </si>
+  <si>
+    <t>金币2300</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】3-8</t>
+  </si>
+  <si>
+    <t>金币2400</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-1</t>
+  </si>
+  <si>
+    <t>金币2500</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-2</t>
+  </si>
+  <si>
+    <t>金币2600</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-3</t>
+  </si>
+  <si>
+    <t>金币2700</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-4</t>
+  </si>
+  <si>
+    <t>金币2800</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-5</t>
+  </si>
+  <si>
+    <t>金币2900</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-6</t>
+  </si>
+  <si>
+    <t>金币3000</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-7</t>
+  </si>
+  <si>
+    <t>金币3100</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】4-8</t>
+  </si>
+  <si>
+    <t>金币3200</t>
+  </si>
+  <si>
+    <t>首次通关【元素大陆】5-1</t>
+  </si>
+  <si>
+    <t>里程碑ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型【1通过成就完成 2通过里程碑完成】</t>
+  </si>
+  <si>
+    <t>达成里程碑id</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>通关【元素大陆1】</t>
+  </si>
+  <si>
+    <t>通关【元素大陆2】</t>
+  </si>
+  <si>
+    <t>通关【元素大陆3】</t>
+  </si>
+  <si>
+    <t>通关【元素大陆4】</t>
+  </si>
+  <si>
+    <t>通关【元素大陆5】</t>
+  </si>
+  <si>
+    <t>元素大陆征服者</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
   </si>
 </sst>
 </file>
@@ -508,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -620,6 +892,15 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -694,6 +975,15 @@
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -835,7 +1125,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,34 +1137,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,9 +1249,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -987,40 +1280,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,30 +1711,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{46171035-1AFE-4C1A-8AAB-D31444DAB6C3}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{63C45E58-582E-4E8C-A408-B88E4054D0A0}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{05B32E81-CD2B-4EA7-AFCA-900C633AA538}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{B09DCC90-90E4-4174-B218-44E4BA461FBF}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{7CEB4F45-F0CD-4195-B2B6-AC1C0174CE7E}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{9C4C63F0-24F8-4324-962A-5018029F7292}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{8F0BDC74-9230-45AD-98B9-22E1197BFFAB}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{3AC7A648-0382-4520-92D5-D3419A8379DC}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FDAFF8BC-C45B-415A-8EF2-64A8394201D6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{769203DB-D70C-491C-B3BA-21A4C17BBD38}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1739,117 +2035,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.3416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.9083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.4083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.675" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.675" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.325" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.6083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5583333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.9083333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4083333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="11.675" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.675" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.325" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="88.5" customHeight="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="208" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A3" s="7">
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
-        <v>1000</v>
-      </c>
       <c r="H3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:13">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1857,95 +2173,1345 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>50000</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:13">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5</v>
+      </c>
+      <c r="H6" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:13">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:13">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:13">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:13">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:13">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:13">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:13">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:13">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:13">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:13">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:13">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:13">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:13">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:13">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:13">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:13">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B22" s="13">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:13">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="E4" s="11">
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:13">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:13">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="15">
+        <v>3</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:13">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="13">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:13">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:13">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="13">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:13">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:13">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="13">
+        <v>3</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:13">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:13">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:13">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="15">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="9">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:10">
-      <c r="A6" s="13">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:13">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:13">
+      <c r="A35" s="14">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="15">
         <v>4</v>
       </c>
-      <c r="F6" s="14">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:13">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:13">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="15">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:13">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="13">
+        <v>4</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:13">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="15">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:13">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="13">
+        <v>4</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:13">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="15">
+        <v>3</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" ht="17.25" spans="1:13">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" ht="17.25" spans="1:13">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" ht="17.25" spans="1:13">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="21"/>
+    </row>
+    <row r="45" ht="17.25" spans="1:13">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" ht="17.25" spans="1:13">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="21"/>
+    </row>
+    <row r="47" ht="17.25" spans="1:13">
+      <c r="A47" s="14">
+        <v>45</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" ht="17.25" spans="1:13">
+      <c r="A48" s="12">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" ht="17.25" spans="1:13">
+      <c r="A49" s="14">
+        <v>47</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" ht="17.25" spans="1:13">
+      <c r="A50" s="12">
+        <v>48</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" ht="17.25" spans="1:13">
+      <c r="A51" s="14">
+        <v>49</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" ht="17.25" spans="1:13">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="21"/>
+    </row>
+    <row r="53" ht="17.25" spans="1:13">
+      <c r="A53" s="14">
+        <v>51</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" ht="17.25" spans="1:13">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" ht="17.25" spans="1:13">
+      <c r="A55" s="14">
+        <v>53</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" ht="17.25" spans="1:13">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1956,93 +3522,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:D9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="47" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4">
+    <row r="1" ht="84" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7">
-        <v>400</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
-      </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-      <c r="D8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="C9">
-        <v>600</v>
-      </c>
-      <c r="D9">
-        <v>900</v>
+      <c r="D7" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
